--- a/Project-structure.xlsx
+++ b/Project-structure.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Project structure" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
@@ -472,7 +472,7 @@
   <dimension ref="B1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
